--- a/PairCorrelation/Asset2Data.xlsx
+++ b/PairCorrelation/Asset2Data.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E190"/>
+  <dimension ref="A1:E183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,16 +466,16 @@
         <v>44927</v>
       </c>
       <c r="B2" t="n">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C2" t="n">
-        <v>1200.65921690107</v>
+        <v>16615.96931801282</v>
       </c>
       <c r="D2" t="n">
-        <v>144712215098.1516</v>
+        <v>319832024054.6308</v>
       </c>
       <c r="E2" t="n">
-        <v>2179799161.038537</v>
+        <v>9799252684.089952</v>
       </c>
     </row>
     <row r="3">
@@ -483,16 +483,16 @@
         <v>44928</v>
       </c>
       <c r="B3" t="n">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C3" t="n">
-        <v>1214.378945925351</v>
+        <v>16674.3425363011</v>
       </c>
       <c r="D3" t="n">
-        <v>146443084804.9009</v>
+        <v>321486454934.2678</v>
       </c>
       <c r="E3" t="n">
-        <v>3845095582.093461</v>
+        <v>13023861027.76947</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         <v>44929</v>
       </c>
       <c r="B4" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C4" t="n">
-        <v>1214.760969419338</v>
+        <v>16677.64618585035</v>
       </c>
       <c r="D4" t="n">
-        <v>146422424046.4976</v>
+        <v>321080820418.184</v>
       </c>
       <c r="E4" t="n">
-        <v>3385566691.456905</v>
+        <v>15367167883.49503</v>
       </c>
     </row>
     <row r="5">
@@ -517,16 +517,16 @@
         <v>44930</v>
       </c>
       <c r="B5" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C5" t="n">
-        <v>1256.436603783486</v>
+        <v>16855.1747387671</v>
       </c>
       <c r="D5" t="n">
-        <v>151322902029.0838</v>
+        <v>324397588037.3948</v>
       </c>
       <c r="E5" t="n">
-        <v>6727208484.546551</v>
+        <v>20836560771.72363</v>
       </c>
     </row>
     <row r="6">
@@ -534,16 +534,16 @@
         <v>44931</v>
       </c>
       <c r="B6" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C6" t="n">
-        <v>1250.792252235591</v>
+        <v>16832.09898849786</v>
       </c>
       <c r="D6" t="n">
-        <v>150805231900.3949</v>
+        <v>324138957221.0557</v>
       </c>
       <c r="E6" t="n">
-        <v>4052351544.820186</v>
+        <v>14919039445.1069</v>
       </c>
     </row>
     <row r="7">
@@ -551,16 +551,16 @@
         <v>44932</v>
       </c>
       <c r="B7" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C7" t="n">
-        <v>1270.028610178057</v>
+        <v>16960.23206247515</v>
       </c>
       <c r="D7" t="n">
-        <v>153115414332.1746</v>
+        <v>326571439011.6566</v>
       </c>
       <c r="E7" t="n">
-        <v>5222706873.557585</v>
+        <v>19046576249.72856</v>
       </c>
     </row>
     <row r="8">
@@ -568,16 +568,16 @@
         <v>44933</v>
       </c>
       <c r="B8" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C8" t="n">
-        <v>1264.83694338372</v>
+        <v>16950.86152185391</v>
       </c>
       <c r="D8" t="n">
-        <v>152351777734.9695</v>
+        <v>326371741274.4109</v>
       </c>
       <c r="E8" t="n">
-        <v>2439388823.057228</v>
+        <v>9594456673.448975</v>
       </c>
     </row>
     <row r="9">
@@ -585,16 +585,16 @@
         <v>44934</v>
       </c>
       <c r="B9" t="n">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C9" t="n">
-        <v>1284.575404134299</v>
+        <v>17074.61539572674</v>
       </c>
       <c r="D9" t="n">
-        <v>154857941332.0086</v>
+        <v>328470896861.3785</v>
       </c>
       <c r="E9" t="n">
-        <v>3401917835.269408</v>
+        <v>11841041542.9937</v>
       </c>
     </row>
     <row r="10">
@@ -602,16 +602,16 @@
         <v>44935</v>
       </c>
       <c r="B10" t="n">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C10" t="n">
-        <v>1321.676571173056</v>
+        <v>17194.90932945318</v>
       </c>
       <c r="D10" t="n">
-        <v>159397504473.2767</v>
+        <v>331158152699.2557</v>
       </c>
       <c r="E10" t="n">
-        <v>8615288094.160769</v>
+        <v>25532751567.19817</v>
       </c>
     </row>
     <row r="11">
@@ -619,16 +619,16 @@
         <v>44936</v>
       </c>
       <c r="B11" t="n">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C11" t="n">
-        <v>1336.017071771777</v>
+        <v>17436.90232978116</v>
       </c>
       <c r="D11" t="n">
-        <v>160999220384.6191</v>
+        <v>335743942932.3494</v>
       </c>
       <c r="E11" t="n">
-        <v>6390063040.044838</v>
+        <v>21858206845.29233</v>
       </c>
     </row>
     <row r="12">
@@ -636,16 +636,16 @@
         <v>44937</v>
       </c>
       <c r="B12" t="n">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C12" t="n">
-        <v>1389.771662094107</v>
+        <v>17996.83255374161</v>
       </c>
       <c r="D12" t="n">
-        <v>167839113151.0311</v>
+        <v>345688973386.6901</v>
       </c>
       <c r="E12" t="n">
-        <v>6779329581.863201</v>
+        <v>25439279072.98185</v>
       </c>
     </row>
     <row r="13">
@@ -653,16 +653,16 @@
         <v>44938</v>
       </c>
       <c r="B13" t="n">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C13" t="n">
-        <v>1417.134908743914</v>
+        <v>18866.81033061705</v>
       </c>
       <c r="D13" t="n">
-        <v>170890542806.2607</v>
+        <v>363381125082.7658</v>
       </c>
       <c r="E13" t="n">
-        <v>13360962683.07227</v>
+        <v>48025109150.17737</v>
       </c>
     </row>
     <row r="14">
@@ -670,16 +670,16 @@
         <v>44939</v>
       </c>
       <c r="B14" t="n">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C14" t="n">
-        <v>1453.376910208922</v>
+        <v>19941.7805432963</v>
       </c>
       <c r="D14" t="n">
-        <v>174798760594.5878</v>
+        <v>382675302196.4898</v>
       </c>
       <c r="E14" t="n">
-        <v>8386970426.225097</v>
+        <v>39514419053.17687</v>
       </c>
     </row>
     <row r="15">
@@ -687,16 +687,16 @@
         <v>44940</v>
       </c>
       <c r="B15" t="n">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C15" t="n">
-        <v>1549.111474081304</v>
+        <v>21019.20661402266</v>
       </c>
       <c r="D15" t="n">
-        <v>187276048380.949</v>
+        <v>405209898132.0056</v>
       </c>
       <c r="E15" t="n">
-        <v>15505376250.71231</v>
+        <v>49498711311.53301</v>
       </c>
     </row>
     <row r="16">
@@ -704,16 +704,16 @@
         <v>44941</v>
       </c>
       <c r="B16" t="n">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C16" t="n">
-        <v>1551.324517175301</v>
+        <v>20853.23056949025</v>
       </c>
       <c r="D16" t="n">
-        <v>186901700956.4831</v>
+        <v>401697403586.5178</v>
       </c>
       <c r="E16" t="n">
-        <v>7074931051.083694</v>
+        <v>23072133987.55368</v>
       </c>
     </row>
     <row r="17">
@@ -721,16 +721,16 @@
         <v>44942</v>
       </c>
       <c r="B17" t="n">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C17" t="n">
-        <v>1577.725890482971</v>
+        <v>21175.33773662521</v>
       </c>
       <c r="D17" t="n">
-        <v>190122961411.6948</v>
+        <v>407760358639.0028</v>
       </c>
       <c r="E17" t="n">
-        <v>9434570734.551754</v>
+        <v>34809391745.54498</v>
       </c>
     </row>
     <row r="18">
@@ -738,16 +738,16 @@
         <v>44943</v>
       </c>
       <c r="B18" t="n">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C18" t="n">
-        <v>1569.530833227292</v>
+        <v>21156.78393116713</v>
       </c>
       <c r="D18" t="n">
-        <v>188982728685.0974</v>
+        <v>407405144842.9396</v>
       </c>
       <c r="E18" t="n">
-        <v>8482482040.670269</v>
+        <v>33278841336.50859</v>
       </c>
     </row>
     <row r="19">
@@ -755,16 +755,16 @@
         <v>44944</v>
       </c>
       <c r="B19" t="n">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C19" t="n">
-        <v>1516.555475473704</v>
+        <v>20726.84496942645</v>
       </c>
       <c r="D19" t="n">
-        <v>183517931282.5893</v>
+        <v>399349603616.1453</v>
       </c>
       <c r="E19" t="n">
-        <v>11809477723.65587</v>
+        <v>40612056908.80891</v>
       </c>
     </row>
     <row r="20">
@@ -772,16 +772,16 @@
         <v>44945</v>
       </c>
       <c r="B20" t="n">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C20" t="n">
-        <v>1550.508887558564</v>
+        <v>21081.67102220433</v>
       </c>
       <c r="D20" t="n">
-        <v>186967330908.3236</v>
+        <v>406258441952.3726</v>
       </c>
       <c r="E20" t="n">
-        <v>6871702648.394773</v>
+        <v>29144534677.57505</v>
       </c>
     </row>
     <row r="21">
@@ -789,16 +789,16 @@
         <v>44946</v>
       </c>
       <c r="B21" t="n">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C21" t="n">
-        <v>1661.33491934054</v>
+        <v>22705.83367889906</v>
       </c>
       <c r="D21" t="n">
-        <v>200011161010.5197</v>
+        <v>436724993652.4275</v>
       </c>
       <c r="E21" t="n">
-        <v>9228892411.460192</v>
+        <v>41321936668.62795</v>
       </c>
     </row>
     <row r="22">
@@ -806,16 +806,16 @@
         <v>44947</v>
       </c>
       <c r="B22" t="n">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C22" t="n">
-        <v>1625.909310988656</v>
+        <v>22771.02328702178</v>
       </c>
       <c r="D22" t="n">
-        <v>195908718395.0808</v>
+        <v>438578588179.0604</v>
       </c>
       <c r="E22" t="n">
-        <v>9663018503.707115</v>
+        <v>44077026803.66082</v>
       </c>
     </row>
     <row r="23">
@@ -823,16 +823,16 @@
         <v>44948</v>
       </c>
       <c r="B23" t="n">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C23" t="n">
-        <v>1630.844854940797</v>
+        <v>22736.66142892971</v>
       </c>
       <c r="D23" t="n">
-        <v>196512572594.4076</v>
+        <v>438060367560.3554</v>
       </c>
       <c r="E23" t="n">
-        <v>8233555835.053316</v>
+        <v>34124364415.43915</v>
       </c>
     </row>
     <row r="24">
@@ -840,16 +840,16 @@
         <v>44949</v>
       </c>
       <c r="B24" t="n">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C24" t="n">
-        <v>1632.961726713527</v>
+        <v>22984.87497643721</v>
       </c>
       <c r="D24" t="n">
-        <v>196541663696.4374</v>
+        <v>442926343072.5923</v>
       </c>
       <c r="E24" t="n">
-        <v>9037743837.862547</v>
+        <v>36750647385.65293</v>
       </c>
     </row>
     <row r="25">
@@ -857,16 +857,16 @@
         <v>44950</v>
       </c>
       <c r="B25" t="n">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C25" t="n">
-        <v>1557.059760872173</v>
+        <v>22610.01059827285</v>
       </c>
       <c r="D25" t="n">
-        <v>187270576772.9432</v>
+        <v>435679436196.3577</v>
       </c>
       <c r="E25" t="n">
-        <v>9078639809.982983</v>
+        <v>35621897292.95152</v>
       </c>
     </row>
     <row r="26">
@@ -874,16 +874,16 @@
         <v>44951</v>
       </c>
       <c r="B26" t="n">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C26" t="n">
-        <v>1614.67718506293</v>
+        <v>23180.42269787426</v>
       </c>
       <c r="D26" t="n">
-        <v>194402223992.6201</v>
+        <v>446715261348.7517</v>
       </c>
       <c r="E26" t="n">
-        <v>11946053798.49039</v>
+        <v>42772537174.72366</v>
       </c>
     </row>
     <row r="27">
@@ -891,16 +891,16 @@
         <v>44952</v>
       </c>
       <c r="B27" t="n">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C27" t="n">
-        <v>1602.846949252319</v>
+        <v>23024.74618081709</v>
       </c>
       <c r="D27" t="n">
-        <v>193276131177.5974</v>
+        <v>444005849172.139</v>
       </c>
       <c r="E27" t="n">
-        <v>10076436860.256</v>
+        <v>37099702812.22777</v>
       </c>
     </row>
     <row r="28">
@@ -908,16 +908,16 @@
         <v>44953</v>
       </c>
       <c r="B28" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C28" t="n">
-        <v>1598.470193545005</v>
+        <v>23082.85838212295</v>
       </c>
       <c r="D28" t="n">
-        <v>192677648328.4367</v>
+        <v>444898315874.0554</v>
       </c>
       <c r="E28" t="n">
-        <v>9593062923.130283</v>
+        <v>36109035905.25896</v>
       </c>
     </row>
     <row r="29">
@@ -925,16 +925,16 @@
         <v>44954</v>
       </c>
       <c r="B29" t="n">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C29" t="n">
-        <v>1573.063439433065</v>
+        <v>23022.23299135344</v>
       </c>
       <c r="D29" t="n">
-        <v>189301295262.2017</v>
+        <v>443702765526.1165</v>
       </c>
       <c r="E29" t="n">
-        <v>6523949724.808857</v>
+        <v>19567219823.87809</v>
       </c>
     </row>
     <row r="30">
@@ -942,16 +942,16 @@
         <v>44955</v>
       </c>
       <c r="B30" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C30" t="n">
-        <v>1646.51599009302</v>
+        <v>23797.46089488124</v>
       </c>
       <c r="D30" t="n">
-        <v>198339307428.1037</v>
+        <v>458368002025.743</v>
       </c>
       <c r="E30" t="n">
-        <v>10037370816.30801</v>
+        <v>38438621263.58117</v>
       </c>
     </row>
     <row r="31">
@@ -959,16 +959,16 @@
         <v>44956</v>
       </c>
       <c r="B31" t="n">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C31" t="n">
-        <v>1568.64771349631</v>
+        <v>22840.3858587971</v>
       </c>
       <c r="D31" t="n">
-        <v>188787565951.3305</v>
+        <v>439295730927.1647</v>
       </c>
       <c r="E31" t="n">
-        <v>10977781767.50235</v>
+        <v>38594596831.97205</v>
       </c>
     </row>
     <row r="32">
@@ -976,16 +976,16 @@
         <v>44957</v>
       </c>
       <c r="B32" t="n">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C32" t="n">
-        <v>1586.539576583691</v>
+        <v>23137.32355408838</v>
       </c>
       <c r="D32" t="n">
-        <v>191042852121.4713</v>
+        <v>445991168199.3282</v>
       </c>
       <c r="E32" t="n">
-        <v>7544090211.946499</v>
+        <v>32683643418.32948</v>
       </c>
     </row>
     <row r="33">
@@ -993,16 +993,16 @@
         <v>44958</v>
       </c>
       <c r="B33" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C33" t="n">
-        <v>1642.857168158598</v>
+        <v>23725.16179614224</v>
       </c>
       <c r="D33" t="n">
-        <v>197724834027.5596</v>
+        <v>457383099382.75</v>
       </c>
       <c r="E33" t="n">
-        <v>9295116915.9373</v>
+        <v>37452064508.17389</v>
       </c>
     </row>
     <row r="34">
@@ -1010,16 +1010,16 @@
         <v>44959</v>
       </c>
       <c r="B34" t="n">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C34" t="n">
-        <v>1648.679684076872</v>
+        <v>23539.67677019653</v>
       </c>
       <c r="D34" t="n">
-        <v>198613736403.1506</v>
+        <v>453565018922.5452</v>
       </c>
       <c r="E34" t="n">
-        <v>12542560274.34266</v>
+        <v>44735297656.69828</v>
       </c>
     </row>
     <row r="35">
@@ -1027,16 +1027,16 @@
         <v>44960</v>
       </c>
       <c r="B35" t="n">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C35" t="n">
-        <v>1665.427871223862</v>
+        <v>23451.57765077463</v>
       </c>
       <c r="D35" t="n">
-        <v>200784153460.4711</v>
+        <v>452312595756.257</v>
       </c>
       <c r="E35" t="n">
-        <v>9528083087.520357</v>
+        <v>41267040610.76361</v>
       </c>
     </row>
     <row r="36">
@@ -1044,16 +1044,16 @@
         <v>44961</v>
       </c>
       <c r="B36" t="n">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C36" t="n">
-        <v>1667.271692563701</v>
+        <v>23340.34958553934</v>
       </c>
       <c r="D36" t="n">
-        <v>201099652782.7474</v>
+        <v>450197147854.798</v>
       </c>
       <c r="E36" t="n">
-        <v>6766208820.07522</v>
+        <v>21063097082.25782</v>
       </c>
     </row>
     <row r="37">
@@ -1061,16 +1061,16 @@
         <v>44962</v>
       </c>
       <c r="B37" t="n">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C37" t="n">
-        <v>1631.372523363653</v>
+        <v>22946.28657859123</v>
       </c>
       <c r="D37" t="n">
-        <v>196817854756.2207</v>
+        <v>442933975658.5659</v>
       </c>
       <c r="E37" t="n">
-        <v>8211226952.330717</v>
+        <v>26678691424.5499</v>
       </c>
     </row>
     <row r="38">
@@ -1078,16 +1078,16 @@
         <v>44963</v>
       </c>
       <c r="B38" t="n">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C38" t="n">
-        <v>1617.144163289206</v>
+        <v>22786.48300638773</v>
       </c>
       <c r="D38" t="n">
-        <v>194725338782.4147</v>
+        <v>438726385719.1618</v>
       </c>
       <c r="E38" t="n">
-        <v>7825100535.008893</v>
+        <v>33963650031.47035</v>
       </c>
     </row>
     <row r="39">
@@ -1095,16 +1095,16 @@
         <v>44964</v>
       </c>
       <c r="B39" t="n">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C39" t="n">
-        <v>1672.822677775814</v>
+        <v>23294.9136483527</v>
       </c>
       <c r="D39" t="n">
-        <v>201779050385.8602</v>
+        <v>449391195299.2034</v>
       </c>
       <c r="E39" t="n">
-        <v>9180247305.88792</v>
+        <v>38850594358.69947</v>
       </c>
     </row>
     <row r="40">
@@ -1112,16 +1112,16 @@
         <v>44965</v>
       </c>
       <c r="B40" t="n">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C40" t="n">
-        <v>1651.40837860238</v>
+        <v>22947.50782856846</v>
       </c>
       <c r="D40" t="n">
-        <v>199107556553.1594</v>
+        <v>442518382691.6548</v>
       </c>
       <c r="E40" t="n">
-        <v>8766845417.320044</v>
+        <v>34247782005.79332</v>
       </c>
     </row>
     <row r="41">
@@ -1129,16 +1129,16 @@
         <v>44966</v>
       </c>
       <c r="B41" t="n">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C41" t="n">
-        <v>1546.383768658398</v>
+        <v>21820.88650809278</v>
       </c>
       <c r="D41" t="n">
-        <v>186306817307.0956</v>
+        <v>420790678627.7739</v>
       </c>
       <c r="E41" t="n">
-        <v>12447757846.41687</v>
+        <v>51161546272.35185</v>
       </c>
     </row>
     <row r="42">
@@ -1146,16 +1146,16 @@
         <v>44967</v>
       </c>
       <c r="B42" t="n">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C42" t="n">
-        <v>1515.534026861553</v>
+        <v>21630.1329795763</v>
       </c>
       <c r="D42" t="n">
-        <v>182839491763.3784</v>
+        <v>417351358181.0193</v>
       </c>
       <c r="E42" t="n">
-        <v>9882779899.96751</v>
+        <v>42389972640.44812</v>
       </c>
     </row>
     <row r="43">
@@ -1163,16 +1163,16 @@
         <v>44968</v>
       </c>
       <c r="B43" t="n">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C43" t="n">
-        <v>1541.968876941271</v>
+        <v>21889.43208004962</v>
       </c>
       <c r="D43" t="n">
-        <v>185826666441.3843</v>
+        <v>422107650473.7795</v>
       </c>
       <c r="E43" t="n">
-        <v>6070233325.97355</v>
+        <v>23574706405.83854</v>
       </c>
     </row>
     <row r="44">
@@ -1180,16 +1180,16 @@
         <v>44969</v>
       </c>
       <c r="B44" t="n">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C44" t="n">
-        <v>1515.33463118064</v>
+        <v>21779.87440384417</v>
       </c>
       <c r="D44" t="n">
-        <v>182722050130.9965</v>
+        <v>420218240428.1313</v>
       </c>
       <c r="E44" t="n">
-        <v>6128794710.192691</v>
+        <v>25877166000.55028</v>
       </c>
     </row>
     <row r="45">
@@ -1197,16 +1197,16 @@
         <v>44970</v>
       </c>
       <c r="B45" t="n">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C45" t="n">
-        <v>1506.916201013505</v>
+        <v>21807.83427472306</v>
       </c>
       <c r="D45" t="n">
-        <v>181589830341.348</v>
+        <v>420838871938.8273</v>
       </c>
       <c r="E45" t="n">
-        <v>11573812955.97068</v>
+        <v>36761909546.14395</v>
       </c>
     </row>
     <row r="46">
@@ -1214,16 +1214,16 @@
         <v>44971</v>
       </c>
       <c r="B46" t="n">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C46" t="n">
-        <v>1556.963484345393</v>
+        <v>22220.07099748107</v>
       </c>
       <c r="D46" t="n">
-        <v>187619568130.7347</v>
+        <v>428649056117.7321</v>
       </c>
       <c r="E46" t="n">
-        <v>11723184974.30426</v>
+        <v>45363697019.73754</v>
       </c>
     </row>
     <row r="47">
@@ -1231,16 +1231,16 @@
         <v>44972</v>
       </c>
       <c r="B47" t="n">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C47" t="n">
-        <v>1674.858207473528</v>
+        <v>24307.8751016316</v>
       </c>
       <c r="D47" t="n">
-        <v>201595282287.4858</v>
+        <v>468820317786.9533</v>
       </c>
       <c r="E47" t="n">
-        <v>11079231384.24542</v>
+        <v>44336284482.19016</v>
       </c>
     </row>
     <row r="48">
@@ -1248,16 +1248,16 @@
         <v>44973</v>
       </c>
       <c r="B48" t="n">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C48" t="n">
-        <v>1646.143501886728</v>
+        <v>23756.90728157743</v>
       </c>
       <c r="D48" t="n">
-        <v>198370400841.4434</v>
+        <v>459293697174.9459</v>
       </c>
       <c r="E48" t="n">
-        <v>13388835215.08776</v>
+        <v>48144978044.45546</v>
       </c>
     </row>
     <row r="49">
@@ -1265,16 +1265,16 @@
         <v>44974</v>
       </c>
       <c r="B49" t="n">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C49" t="n">
-        <v>1697.084866573789</v>
+        <v>24628.82455217312</v>
       </c>
       <c r="D49" t="n">
-        <v>204534589183.7981</v>
+        <v>475194230168.0997</v>
       </c>
       <c r="E49" t="n">
-        <v>10807323083.84196</v>
+        <v>54200707340.94142</v>
       </c>
     </row>
     <row r="50">
@@ -1282,16 +1282,16 @@
         <v>44975</v>
       </c>
       <c r="B50" t="n">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C50" t="n">
-        <v>1692.518962831222</v>
+        <v>24642.79087073843</v>
       </c>
       <c r="D50" t="n">
-        <v>203613145994.3606</v>
+        <v>475529620771.9494</v>
       </c>
       <c r="E50" t="n">
-        <v>5863446679.020431</v>
+        <v>24900444765.27695</v>
       </c>
     </row>
     <row r="51">
@@ -1299,16 +1299,16 @@
         <v>44976</v>
       </c>
       <c r="B51" t="n">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C51" t="n">
-        <v>1680.378685700073</v>
+        <v>24284.4780037147</v>
       </c>
       <c r="D51" t="n">
-        <v>202999098993.9826</v>
+        <v>470798520570.0436</v>
       </c>
       <c r="E51" t="n">
-        <v>7499517187.119554</v>
+        <v>33664683478.33256</v>
       </c>
     </row>
     <row r="52">
@@ -1316,16 +1316,16 @@
         <v>44977</v>
       </c>
       <c r="B52" t="n">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C52" t="n">
-        <v>1700.198681499266</v>
+        <v>24786.66594084571</v>
       </c>
       <c r="D52" t="n">
-        <v>204900256888.8414</v>
+        <v>478236525469.6496</v>
       </c>
       <c r="E52" t="n">
-        <v>8435810846.264387</v>
+        <v>38997046274.49725</v>
       </c>
     </row>
     <row r="53">
@@ -1333,16 +1333,16 @@
         <v>44978</v>
       </c>
       <c r="B53" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C53" t="n">
-        <v>1656.582369571119</v>
+        <v>24417.38703630947</v>
       </c>
       <c r="D53" t="n">
-        <v>199387951962.0551</v>
+        <v>470623925511.1786</v>
       </c>
       <c r="E53" t="n">
-        <v>9728814194.484383</v>
+        <v>41991954878.4476</v>
       </c>
     </row>
     <row r="54">
@@ -1350,16 +1350,16 @@
         <v>44979</v>
       </c>
       <c r="B54" t="n">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C54" t="n">
-        <v>1643.173393745349</v>
+        <v>24146.10136454522</v>
       </c>
       <c r="D54" t="n">
-        <v>198153971276.3559</v>
+        <v>465998918250.2451</v>
       </c>
       <c r="E54" t="n">
-        <v>9836391621.850903</v>
+        <v>40336608135.49699</v>
       </c>
     </row>
     <row r="55">
@@ -1367,16 +1367,16 @@
         <v>44980</v>
       </c>
       <c r="B55" t="n">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C55" t="n">
-        <v>1651.850006691427</v>
+        <v>23951.11098423326</v>
       </c>
       <c r="D55" t="n">
-        <v>198619189860.0559</v>
+        <v>461042830140.0772</v>
       </c>
       <c r="E55" t="n">
-        <v>9698749201.902168</v>
+        <v>42356618035.34962</v>
       </c>
     </row>
     <row r="56">
@@ -1384,16 +1384,16 @@
         <v>44981</v>
       </c>
       <c r="B56" t="n">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C56" t="n">
-        <v>1608.103493653836</v>
+        <v>23172.28653801893</v>
       </c>
       <c r="D56" t="n">
-        <v>193773223390.3348</v>
+        <v>447316067422.0474</v>
       </c>
       <c r="E56" t="n">
-        <v>9609840835.076471</v>
+        <v>35081974267.07997</v>
       </c>
     </row>
     <row r="57">
@@ -1401,16 +1401,16 @@
         <v>44982</v>
       </c>
       <c r="B57" t="n">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C57" t="n">
-        <v>1593.951973790846</v>
+        <v>23157.03810745952</v>
       </c>
       <c r="D57" t="n">
-        <v>192056375721.2107</v>
+        <v>447030240435.9985</v>
       </c>
       <c r="E57" t="n">
-        <v>6117521125.045025</v>
+        <v>22999909593.10942</v>
       </c>
     </row>
     <row r="58">
@@ -1418,16 +1418,16 @@
         <v>44983</v>
       </c>
       <c r="B58" t="n">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C58" t="n">
-        <v>1640.582710194306</v>
+        <v>23541.11585449356</v>
       </c>
       <c r="D58" t="n">
-        <v>197696596339.3676</v>
+        <v>454284528651.5023</v>
       </c>
       <c r="E58" t="n">
-        <v>6357994998.206232</v>
+        <v>24469102669.37105</v>
       </c>
     </row>
     <row r="59">
@@ -1435,16 +1435,16 @@
         <v>44984</v>
       </c>
       <c r="B59" t="n">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C59" t="n">
-        <v>1633.976628983382</v>
+        <v>23518.12390627588</v>
       </c>
       <c r="D59" t="n">
-        <v>197018105507.0607</v>
+        <v>454364917718.867</v>
       </c>
       <c r="E59" t="n">
-        <v>7916573299.24559</v>
+        <v>28832423816.47872</v>
       </c>
     </row>
     <row r="60">
@@ -1452,16 +1452,16 @@
         <v>44985</v>
       </c>
       <c r="B60" t="n">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C60" t="n">
-        <v>1606.632639454843</v>
+        <v>23155.5437468258</v>
       </c>
       <c r="D60" t="n">
-        <v>193276888983.6779</v>
+        <v>446010055987.8574</v>
       </c>
       <c r="E60" t="n">
-        <v>6883711561.9226</v>
+        <v>25534054046.06684</v>
       </c>
     </row>
     <row r="61">
@@ -1469,16 +1469,16 @@
         <v>44986</v>
       </c>
       <c r="B61" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C61" t="n">
-        <v>1663.925777294461</v>
+        <v>23634.33348912379</v>
       </c>
       <c r="D61" t="n">
-        <v>200476156508.3419</v>
+        <v>456417315966.7193</v>
       </c>
       <c r="E61" t="n">
-        <v>8672222866.055677</v>
+        <v>32507897259.08434</v>
       </c>
     </row>
     <row r="62">
@@ -1486,16 +1486,16 @@
         <v>44987</v>
       </c>
       <c r="B62" t="n">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C62" t="n">
-        <v>1647.664666907772</v>
+        <v>23464.33654185282</v>
       </c>
       <c r="D62" t="n">
-        <v>198520753673.5454</v>
+        <v>453067155320.8529</v>
       </c>
       <c r="E62" t="n">
-        <v>7930395056.206914</v>
+        <v>27432755758.4402</v>
       </c>
     </row>
     <row r="63">
@@ -1503,16 +1503,16 @@
         <v>44988</v>
       </c>
       <c r="B63" t="n">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C63" t="n">
-        <v>1570.668210599776</v>
+        <v>22367.43302246967</v>
       </c>
       <c r="D63" t="n">
-        <v>189178795460.2609</v>
+        <v>431727585101.1504</v>
       </c>
       <c r="E63" t="n">
-        <v>11179316252.20772</v>
+        <v>34239649135.07021</v>
       </c>
     </row>
     <row r="64">
@@ -1520,16 +1520,16 @@
         <v>44989</v>
       </c>
       <c r="B64" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C64" t="n">
-        <v>1568.495601056219</v>
+        <v>22348.32991538815</v>
       </c>
       <c r="D64" t="n">
-        <v>189002414068.6852</v>
+        <v>431837491811.4938</v>
       </c>
       <c r="E64" t="n">
-        <v>4800994312.370927</v>
+        <v>13392431931.93038</v>
       </c>
     </row>
     <row r="65">
@@ -1537,16 +1537,16 @@
         <v>44990</v>
       </c>
       <c r="B65" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C65" t="n">
-        <v>1563.22566200563</v>
+        <v>22421.88580585327</v>
       </c>
       <c r="D65" t="n">
-        <v>188337456156.2138</v>
+        <v>433081135066.3954</v>
       </c>
       <c r="E65" t="n">
-        <v>62172854406.22754</v>
+        <v>16080097920.16083</v>
       </c>
     </row>
     <row r="66">
@@ -1554,16 +1554,16 @@
         <v>44991</v>
       </c>
       <c r="B66" t="n">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C66" t="n">
-        <v>1567.350146525219</v>
+        <v>22415.11365969483</v>
       </c>
       <c r="D66" t="n">
-        <v>188803304807.8448</v>
+        <v>432758824798.3097</v>
       </c>
       <c r="E66" t="n">
-        <v>6627693313.532333</v>
+        <v>21124920006.05771</v>
       </c>
     </row>
     <row r="67">
@@ -1571,16 +1571,16 @@
         <v>44992</v>
       </c>
       <c r="B67" t="n">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C67" t="n">
-        <v>1563.813182247501</v>
+        <v>22217.20988490533</v>
       </c>
       <c r="D67" t="n">
-        <v>187945419858.8607</v>
+        <v>427994888566.5421</v>
       </c>
       <c r="E67" t="n">
-        <v>8523808476.527845</v>
+        <v>27780357943.16268</v>
       </c>
     </row>
     <row r="68">
@@ -1588,16 +1588,16 @@
         <v>44993</v>
       </c>
       <c r="B68" t="n">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C68" t="n">
-        <v>1535.26025209711</v>
+        <v>21712.65119391273</v>
       </c>
       <c r="D68" t="n">
-        <v>185138878803.2572</v>
+        <v>419694984165.3824</v>
       </c>
       <c r="E68" t="n">
-        <v>11881879818.72524</v>
+        <v>28493032424.78311</v>
       </c>
     </row>
     <row r="69">
@@ -1605,16 +1605,16 @@
         <v>44994</v>
       </c>
       <c r="B69" t="n">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C69" t="n">
-        <v>1440.167661880184</v>
+        <v>20376.32000742881</v>
       </c>
       <c r="D69" t="n">
-        <v>173232609854.2885</v>
+        <v>392841773384.4403</v>
       </c>
       <c r="E69" t="n">
-        <v>10861201441.13542</v>
+        <v>40173833477.66077</v>
       </c>
     </row>
     <row r="70">
@@ -1622,16 +1622,16 @@
         <v>44995</v>
       </c>
       <c r="B70" t="n">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C70" t="n">
-        <v>1429.603169104185</v>
+        <v>20195.2289502733</v>
       </c>
       <c r="D70" t="n">
-        <v>172474466355.7147</v>
+        <v>390202255053.3354</v>
       </c>
       <c r="E70" t="n">
-        <v>14696381616.84098</v>
+        <v>51593890225.48742</v>
       </c>
     </row>
     <row r="71">
@@ -1639,16 +1639,16 @@
         <v>44996</v>
       </c>
       <c r="B71" t="n">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C71" t="n">
-        <v>1474.40324440156</v>
+        <v>20521.55615175117</v>
       </c>
       <c r="D71" t="n">
-        <v>176915178456.4187</v>
+        <v>394742728281.9893</v>
       </c>
       <c r="E71" t="n">
-        <v>18345198261.39598</v>
+        <v>37746654239.61721</v>
       </c>
     </row>
     <row r="72">
@@ -1656,16 +1656,16 @@
         <v>44997</v>
       </c>
       <c r="B72" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C72" t="n">
-        <v>1588.196802053047</v>
+        <v>22095.71339833569</v>
       </c>
       <c r="D72" t="n">
-        <v>190440681263.2129</v>
+        <v>425816781283.9279</v>
       </c>
       <c r="E72" t="n">
-        <v>13967891188.5</v>
+        <v>36639901908.82403</v>
       </c>
     </row>
     <row r="73">
@@ -1673,16 +1673,16 @@
         <v>44998</v>
       </c>
       <c r="B73" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C73" t="n">
-        <v>1678.915634393308</v>
+        <v>24178.95532797469</v>
       </c>
       <c r="D73" t="n">
-        <v>202294154847.0903</v>
+        <v>466509005562.7817</v>
       </c>
       <c r="E73" t="n">
-        <v>65211714924.50838</v>
+        <v>66799159801.95811</v>
       </c>
     </row>
     <row r="74">
@@ -1690,16 +1690,16 @@
         <v>44999</v>
       </c>
       <c r="B74" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C74" t="n">
-        <v>1708.300897366666</v>
+        <v>24758.76508582757</v>
       </c>
       <c r="D74" t="n">
-        <v>205738833552.6543</v>
+        <v>478406045309.6089</v>
       </c>
       <c r="E74" t="n">
-        <v>19833762797.58361</v>
+        <v>70714394276.37074</v>
       </c>
     </row>
     <row r="75">
@@ -1707,16 +1707,16 @@
         <v>45000</v>
       </c>
       <c r="B75" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C75" t="n">
-        <v>1658.070108566312</v>
+        <v>24470.88205445031</v>
       </c>
       <c r="D75" t="n">
-        <v>199607487558.3324</v>
+        <v>472833547484.0809</v>
       </c>
       <c r="E75" t="n">
-        <v>17257648020.36215</v>
+        <v>63107437928.81401</v>
       </c>
     </row>
     <row r="76">
@@ -1724,16 +1724,16 @@
         <v>45001</v>
       </c>
       <c r="B76" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C76" t="n">
-        <v>1679.79247620809</v>
+        <v>25161.27201752005</v>
       </c>
       <c r="D76" t="n">
-        <v>202411234958.1569</v>
+        <v>486375597562.7987</v>
       </c>
       <c r="E76" t="n">
-        <v>30201930394.76128</v>
+        <v>60688056874.81415</v>
       </c>
     </row>
     <row r="77">
@@ -1741,16 +1741,16 @@
         <v>45002</v>
       </c>
       <c r="B77" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C77" t="n">
-        <v>1793.298801734233</v>
+        <v>27466.67782982986</v>
       </c>
       <c r="D77" t="n">
-        <v>215660560704.7752</v>
+        <v>530038219067.3334</v>
       </c>
       <c r="E77" t="n">
-        <v>14459727611.04181</v>
+        <v>64617615617.80156</v>
       </c>
     </row>
     <row r="78">
@@ -1758,16 +1758,16 @@
         <v>45003</v>
       </c>
       <c r="B78" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C78" t="n">
-        <v>1769.425326912385</v>
+        <v>27107.79218350439</v>
       </c>
       <c r="D78" t="n">
-        <v>213123927233.328</v>
+        <v>523262280970.1478</v>
       </c>
       <c r="E78" t="n">
-        <v>11976182095.29605</v>
+        <v>46473651090.57841</v>
       </c>
     </row>
     <row r="79">
@@ -1775,16 +1775,16 @@
         <v>45004</v>
       </c>
       <c r="B79" t="n">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C79" t="n">
-        <v>1801.367419011459</v>
+        <v>28186.84265236013</v>
       </c>
       <c r="D79" t="n">
-        <v>217844457987.9951</v>
+        <v>546680822196.2155</v>
       </c>
       <c r="E79" t="n">
-        <v>10745813975.10349</v>
+        <v>46394763656.03815</v>
       </c>
     </row>
     <row r="80">
@@ -1792,16 +1792,16 @@
         <v>45005</v>
       </c>
       <c r="B80" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C80" t="n">
-        <v>1744.441459960018</v>
+        <v>27929.16773314029</v>
       </c>
       <c r="D80" t="n">
-        <v>209763828559.9232</v>
+        <v>538935400013.3555</v>
       </c>
       <c r="E80" t="n">
-        <v>12973595973.35999</v>
+        <v>55315948514.42699</v>
       </c>
     </row>
     <row r="81">
@@ -1809,16 +1809,16 @@
         <v>45006</v>
       </c>
       <c r="B81" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C81" t="n">
-        <v>1811.411243668274</v>
+        <v>28264.23961052235</v>
       </c>
       <c r="D81" t="n">
-        <v>218008486913.6836</v>
+        <v>545917428270.1058</v>
       </c>
       <c r="E81" t="n">
-        <v>10831022955.19994</v>
+        <v>34430928756.27183</v>
       </c>
     </row>
     <row r="82">
@@ -1826,16 +1826,16 @@
         <v>45007</v>
       </c>
       <c r="B82" t="n">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C82" t="n">
-        <v>1747.640028114114</v>
+        <v>27449.25483080736</v>
       </c>
       <c r="D82" t="n">
-        <v>210285658211.0843</v>
+        <v>530515158753.954</v>
       </c>
       <c r="E82" t="n">
-        <v>13820716099.50186</v>
+        <v>35394833933.50181</v>
       </c>
     </row>
     <row r="83">
@@ -1843,16 +1843,16 @@
         <v>45008</v>
       </c>
       <c r="B83" t="n">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C83" t="n">
-        <v>1824.956657894933</v>
+        <v>28459.7351135525</v>
       </c>
       <c r="D83" t="n">
-        <v>219518418514.1925</v>
+        <v>549578396178.6341</v>
       </c>
       <c r="E83" t="n">
-        <v>10980967034.93774</v>
+        <v>20360807194.56342</v>
       </c>
     </row>
     <row r="84">
@@ -1860,16 +1860,16 @@
         <v>45009</v>
       </c>
       <c r="B84" t="n">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C84" t="n">
-        <v>1751.219407826173</v>
+        <v>27595.4947483755</v>
       </c>
       <c r="D84" t="n">
-        <v>212072713258.261</v>
+        <v>533634255119.3758</v>
       </c>
       <c r="E84" t="n">
-        <v>11601017881.78658</v>
+        <v>21551272690.41361</v>
       </c>
     </row>
     <row r="85">
@@ -1877,16 +1877,16 @@
         <v>45010</v>
       </c>
       <c r="B85" t="n">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C85" t="n">
-        <v>1753.982636507409</v>
+        <v>27670.19949849683</v>
       </c>
       <c r="D85" t="n">
-        <v>211355889911.3326</v>
+        <v>534960802333.3107</v>
       </c>
       <c r="E85" t="n">
-        <v>8023849174.389528</v>
+        <v>15053754845.31385</v>
       </c>
     </row>
     <row r="86">
@@ -1894,16 +1894,16 @@
         <v>45011</v>
       </c>
       <c r="B86" t="n">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C86" t="n">
-        <v>1776.867690456723</v>
+        <v>28048.46997853496</v>
       </c>
       <c r="D86" t="n">
-        <v>214528709136.8291</v>
+        <v>542675619058.7797</v>
       </c>
       <c r="E86" t="n">
-        <v>8417258785.455161</v>
+        <v>14450374261.0638</v>
       </c>
     </row>
     <row r="87">
@@ -1911,16 +1911,16 @@
         <v>45012</v>
       </c>
       <c r="B87" t="n">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C87" t="n">
-        <v>1719.170972674861</v>
+        <v>27182.29955995046</v>
       </c>
       <c r="D87" t="n">
-        <v>206685090340.5369</v>
+        <v>525230880103.1384</v>
       </c>
       <c r="E87" t="n">
-        <v>9757415238.165146</v>
+        <v>18519053231.63728</v>
       </c>
     </row>
     <row r="88">
@@ -1928,16 +1928,16 @@
         <v>45013</v>
       </c>
       <c r="B88" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C88" t="n">
-        <v>1776.043639329832</v>
+        <v>27291.3500210497</v>
       </c>
       <c r="D88" t="n">
-        <v>213909228254.6471</v>
+        <v>528042785008.9827</v>
       </c>
       <c r="E88" t="n">
-        <v>9548011563.716631</v>
+        <v>17658503318.91048</v>
       </c>
     </row>
     <row r="89">
@@ -1945,16 +1945,16 @@
         <v>45014</v>
       </c>
       <c r="B89" t="n">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C89" t="n">
-        <v>1795.536947827324</v>
+        <v>28394.99778019906</v>
       </c>
       <c r="D89" t="n">
-        <v>216268184816.8208</v>
+        <v>548808373530.0567</v>
       </c>
       <c r="E89" t="n">
-        <v>10395388838.76884</v>
+        <v>21097595427.48953</v>
       </c>
     </row>
     <row r="90">
@@ -1962,16 +1962,16 @@
         <v>45015</v>
       </c>
       <c r="B90" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C90" t="n">
-        <v>1792.908578308043</v>
+        <v>28041.12308008828</v>
       </c>
       <c r="D90" t="n">
-        <v>216024475834.1531</v>
+        <v>542369769760.288</v>
       </c>
       <c r="E90" t="n">
-        <v>10958214915.4279</v>
+        <v>22702531379.35043</v>
       </c>
     </row>
     <row r="91">
@@ -1979,16 +1979,16 @@
         <v>45016</v>
       </c>
       <c r="B91" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C91" t="n">
-        <v>1824.020005552818</v>
+        <v>28516.78472968864</v>
       </c>
       <c r="D91" t="n">
-        <v>219903281108.4414</v>
+        <v>551707238559.8757</v>
       </c>
       <c r="E91" t="n">
-        <v>10329452626.6318</v>
+        <v>19112345639.96219</v>
       </c>
     </row>
     <row r="92">
@@ -1996,16 +1996,16 @@
         <v>45017</v>
       </c>
       <c r="B92" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C92" t="n">
-        <v>1823.000379825308</v>
+        <v>28498.94463304862</v>
       </c>
       <c r="D92" t="n">
-        <v>219561711559.01</v>
+        <v>550949831049.3949</v>
       </c>
       <c r="E92" t="n">
-        <v>6199278060.289369</v>
+        <v>10085380788.87092</v>
       </c>
     </row>
     <row r="93">
@@ -2013,16 +2013,16 @@
         <v>45018</v>
       </c>
       <c r="B93" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C93" t="n">
-        <v>1797.736988393855</v>
+        <v>28236.50873893979</v>
       </c>
       <c r="D93" t="n">
-        <v>216494189054.4792</v>
+        <v>545181408318.2205</v>
       </c>
       <c r="E93" t="n">
-        <v>6679784659.59878</v>
+        <v>11682876586.81453</v>
       </c>
     </row>
     <row r="94">
@@ -2030,16 +2030,16 @@
         <v>45019</v>
       </c>
       <c r="B94" t="n">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C94" t="n">
-        <v>1810.466255484756</v>
+        <v>27815.42653124798</v>
       </c>
       <c r="D94" t="n">
-        <v>218499091537.9477</v>
+        <v>539350908801.9282</v>
       </c>
       <c r="E94" t="n">
-        <v>11141583996.17221</v>
+        <v>19711493345.47604</v>
       </c>
     </row>
     <row r="95">
@@ -2047,16 +2047,16 @@
         <v>45020</v>
       </c>
       <c r="B95" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C95" t="n">
-        <v>1871.333525898643</v>
+        <v>28175.33033421539</v>
       </c>
       <c r="D95" t="n">
-        <v>225257854355.9486</v>
+        <v>544313567953.4008</v>
       </c>
       <c r="E95" t="n">
-        <v>11580514457.96186</v>
+        <v>14871614372.83109</v>
       </c>
     </row>
     <row r="96">
@@ -2064,16 +2064,16 @@
         <v>45021</v>
       </c>
       <c r="B96" t="n">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C96" t="n">
-        <v>1911.338689951751</v>
+        <v>28197.20034124555</v>
       </c>
       <c r="D96" t="n">
-        <v>230370056366.2714</v>
+        <v>545409754928.5269</v>
       </c>
       <c r="E96" t="n">
-        <v>11586484696.70598</v>
+        <v>16507617903.81395</v>
       </c>
     </row>
     <row r="97">
@@ -2081,16 +2081,16 @@
         <v>45022</v>
       </c>
       <c r="B97" t="n">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C97" t="n">
-        <v>1872.246682367909</v>
+        <v>28042.9833864884</v>
       </c>
       <c r="D97" t="n">
-        <v>225549620778.9139</v>
+        <v>542601176317.4441</v>
       </c>
       <c r="E97" t="n">
-        <v>9208408844.045069</v>
+        <v>13079528995.13992</v>
       </c>
     </row>
     <row r="98">
@@ -2098,16 +2098,16 @@
         <v>45023</v>
       </c>
       <c r="B98" t="n">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C98" t="n">
-        <v>1866.657544787415</v>
+        <v>27934.43871284895</v>
       </c>
       <c r="D98" t="n">
-        <v>224884695655.0538</v>
+        <v>540432353743.3232</v>
       </c>
       <c r="E98" t="n">
-        <v>9298216041.371656</v>
+        <v>10141276803.89391</v>
       </c>
     </row>
     <row r="99">
@@ -2115,16 +2115,16 @@
         <v>45024</v>
       </c>
       <c r="B99" t="n">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C99" t="n">
-        <v>1851.050671070621</v>
+        <v>27968.12804705512</v>
       </c>
       <c r="D99" t="n">
-        <v>223169245107.383</v>
+        <v>541094458101.4471</v>
       </c>
       <c r="E99" t="n">
-        <v>5970294474.952573</v>
+        <v>8844199146.180099</v>
       </c>
     </row>
     <row r="100">
@@ -2132,16 +2132,16 @@
         <v>45025</v>
       </c>
       <c r="B100" t="n">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C100" t="n">
-        <v>1859.940387287814</v>
+        <v>28351.23699385011</v>
       </c>
       <c r="D100" t="n">
-        <v>224219517643.8137</v>
+        <v>548568597244.1978</v>
       </c>
       <c r="E100" t="n">
-        <v>7405572878.99046</v>
+        <v>11429030269.73169</v>
       </c>
     </row>
     <row r="101">
@@ -2149,16 +2149,16 @@
         <v>45026</v>
       </c>
       <c r="B101" t="n">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C101" t="n">
-        <v>1909.882060941591</v>
+        <v>29657.97413687356</v>
       </c>
       <c r="D101" t="n">
-        <v>230201702660.8635</v>
+        <v>574059578670.3654</v>
       </c>
       <c r="E101" t="n">
-        <v>9639736045.970774</v>
+        <v>17475381731.25188</v>
       </c>
     </row>
     <row r="102">
@@ -2166,16 +2166,16 @@
         <v>45027</v>
       </c>
       <c r="B102" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C102" t="n">
-        <v>1892.938911069582</v>
+        <v>30260.93610940865</v>
       </c>
       <c r="D102" t="n">
-        <v>227988460702.9362</v>
+        <v>585359301945.2595</v>
       </c>
       <c r="E102" t="n">
-        <v>10245367683.71216</v>
+        <v>18320296514.77765</v>
       </c>
     </row>
     <row r="103">
@@ -2183,16 +2183,16 @@
         <v>45028</v>
       </c>
       <c r="B103" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C103" t="n">
-        <v>1920.223031193122</v>
+        <v>29904.13869471891</v>
       </c>
       <c r="D103" t="n">
-        <v>231476399968.9067</v>
+        <v>578850627447.6105</v>
       </c>
       <c r="E103" t="n">
-        <v>13152150835.22722</v>
+        <v>18407698928.06657</v>
       </c>
     </row>
     <row r="104">
@@ -2200,16 +2200,16 @@
         <v>45029</v>
       </c>
       <c r="B104" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C104" t="n">
-        <v>2012.785415162006</v>
+        <v>30405.02731278115</v>
       </c>
       <c r="D104" t="n">
-        <v>242284529486.3431</v>
+        <v>587939018759.4221</v>
       </c>
       <c r="E104" t="n">
-        <v>13956404022.5792</v>
+        <v>16404033694.47376</v>
       </c>
     </row>
     <row r="105">
@@ -2217,16 +2217,16 @@
         <v>45030</v>
       </c>
       <c r="B105" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C105" t="n">
-        <v>2102.946188294908</v>
+        <v>30468.40870059078</v>
       </c>
       <c r="D105" t="n">
-        <v>252719453976.0147</v>
+        <v>589051372432.549</v>
       </c>
       <c r="E105" t="n">
-        <v>17899705467.09288</v>
+        <v>20984067684.21622</v>
       </c>
     </row>
     <row r="106">
@@ -2234,16 +2234,16 @@
         <v>45031</v>
       </c>
       <c r="B106" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C106" t="n">
-        <v>2093.166331331955</v>
+        <v>30312.16187965924</v>
       </c>
       <c r="D106" t="n">
-        <v>251586840869.9989</v>
+        <v>586969785778.0928</v>
       </c>
       <c r="E106" t="n">
-        <v>9272832786.084044</v>
+        <v>11028264273.14671</v>
       </c>
     </row>
     <row r="107">
@@ -2251,16 +2251,16 @@
         <v>45032</v>
       </c>
       <c r="B107" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C107" t="n">
-        <v>2118.598789153885</v>
+        <v>30304.80751478584</v>
       </c>
       <c r="D107" t="n">
-        <v>253507799906.4971</v>
+        <v>586268225587.8677</v>
       </c>
       <c r="E107" t="n">
-        <v>8879608633.84169</v>
+        <v>11188035367.07702</v>
       </c>
     </row>
     <row r="108">
@@ -2268,16 +2268,16 @@
         <v>45033</v>
       </c>
       <c r="B108" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C108" t="n">
-        <v>2077.535664637183</v>
+        <v>29467.45982926034</v>
       </c>
       <c r="D108" t="n">
-        <v>247900016291.376</v>
+        <v>569958059900.5195</v>
       </c>
       <c r="E108" t="n">
-        <v>10818847581.54074</v>
+        <v>16771824487.57936</v>
       </c>
     </row>
     <row r="109">
@@ -2285,16 +2285,16 @@
         <v>45034</v>
       </c>
       <c r="B109" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C109" t="n">
-        <v>2103.278813592151</v>
+        <v>30365.90416754141</v>
       </c>
       <c r="D109" t="n">
-        <v>251100187595.887</v>
+        <v>587730212230.9563</v>
       </c>
       <c r="E109" t="n">
-        <v>10121134598.14348</v>
+        <v>18078539248.52104</v>
       </c>
     </row>
     <row r="110">
@@ -2302,16 +2302,16 @@
         <v>45035</v>
       </c>
       <c r="B110" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C110" t="n">
-        <v>1936.425920798363</v>
+        <v>28833.2175012211</v>
       </c>
       <c r="D110" t="n">
-        <v>231458322403.7939</v>
+        <v>558796473890.5958</v>
       </c>
       <c r="E110" t="n">
-        <v>15695628542.02445</v>
+        <v>24136616861.63636</v>
       </c>
     </row>
     <row r="111">
@@ -2319,16 +2319,16 @@
         <v>45036</v>
       </c>
       <c r="B111" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C111" t="n">
-        <v>1943.435598192578</v>
+        <v>28255.57824866478</v>
       </c>
       <c r="D111" t="n">
-        <v>233965107542.7419</v>
+        <v>546141074655.3764</v>
       </c>
       <c r="E111" t="n">
-        <v>12422352272.16522</v>
+        <v>21695904964.79905</v>
       </c>
     </row>
     <row r="112">
@@ -2336,16 +2336,16 @@
         <v>45037</v>
       </c>
       <c r="B112" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C112" t="n">
-        <v>1850.149738424215</v>
+        <v>27300.15712851557</v>
       </c>
       <c r="D112" t="n">
-        <v>222536195564.3714</v>
+        <v>528357279464.0127</v>
       </c>
       <c r="E112" t="n">
-        <v>13427480065.76744</v>
+        <v>20420333533.71415</v>
       </c>
     </row>
     <row r="113">
@@ -2353,16 +2353,16 @@
         <v>45038</v>
       </c>
       <c r="B113" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C113" t="n">
-        <v>1877.541328061146</v>
+        <v>27861.64066347655</v>
       </c>
       <c r="D113" t="n">
-        <v>226130094815.9329</v>
+        <v>539454716829.9368</v>
       </c>
       <c r="E113" t="n">
-        <v>7809497062.825459</v>
+        <v>11700230849.96813</v>
       </c>
     </row>
     <row r="114">
@@ -2370,16 +2370,16 @@
         <v>45039</v>
       </c>
       <c r="B114" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C114" t="n">
-        <v>1863.639142214224</v>
+        <v>27606.57834765314</v>
       </c>
       <c r="D114" t="n">
-        <v>224130103074.6425</v>
+        <v>533753154140.2553</v>
       </c>
       <c r="E114" t="n">
-        <v>7375382210.29527</v>
+        <v>11435645306.7716</v>
       </c>
     </row>
     <row r="115">
@@ -2387,16 +2387,16 @@
         <v>45040</v>
       </c>
       <c r="B115" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C115" t="n">
-        <v>1842.630792087157</v>
+        <v>27511.63568216131</v>
       </c>
       <c r="D115" t="n">
-        <v>221819334333.2904</v>
+        <v>532290845181.5339</v>
       </c>
       <c r="E115" t="n">
-        <v>9177916724.086399</v>
+        <v>16443099944.64734</v>
       </c>
     </row>
     <row r="116">
@@ -2404,16 +2404,16 @@
         <v>45041</v>
       </c>
       <c r="B116" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C116" t="n">
-        <v>1870.565223123027</v>
+        <v>28351.21824837301</v>
       </c>
       <c r="D116" t="n">
-        <v>225096171581.735</v>
+        <v>548359667398.6523</v>
       </c>
       <c r="E116" t="n">
-        <v>9669740943.905441</v>
+        <v>17061823985.86535</v>
       </c>
     </row>
     <row r="117">
@@ -2421,16 +2421,16 @@
         <v>45042</v>
       </c>
       <c r="B117" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C117" t="n">
-        <v>1867.589325012487</v>
+        <v>28352.19132059668</v>
       </c>
       <c r="D117" t="n">
-        <v>224807445929.1713</v>
+        <v>548638734338.3676</v>
       </c>
       <c r="E117" t="n">
-        <v>16137081936.11856</v>
+        <v>30540034741.28477</v>
       </c>
     </row>
     <row r="118">
@@ -2438,16 +2438,16 @@
         <v>45043</v>
       </c>
       <c r="B118" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C118" t="n">
-        <v>1910.456779102895</v>
+        <v>29483.52170499186</v>
       </c>
       <c r="D118" t="n">
-        <v>229940294581.2185</v>
+        <v>570258039118.5771</v>
       </c>
       <c r="E118" t="n">
-        <v>17307261170.94721</v>
+        <v>26238597379.49954</v>
       </c>
     </row>
     <row r="119">
@@ -2455,16 +2455,16 @@
         <v>45044</v>
       </c>
       <c r="B119" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C119" t="n">
-        <v>1894.428083950107</v>
+        <v>29339.99499754935</v>
       </c>
       <c r="D119" t="n">
-        <v>228152292773.1309</v>
+        <v>568153896404.9741</v>
       </c>
       <c r="E119" t="n">
-        <v>8853391784.29081</v>
+        <v>18730801539.18155</v>
       </c>
     </row>
     <row r="120">
@@ -2472,16 +2472,16 @@
         <v>45045</v>
       </c>
       <c r="B120" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C120" t="n">
-        <v>1905.27385227321</v>
+        <v>29217.94404680991</v>
       </c>
       <c r="D120" t="n">
-        <v>229429843509.54</v>
+        <v>565714356650.6621</v>
       </c>
       <c r="E120" t="n">
-        <v>5262009753.405011</v>
+        <v>9711415138.827158</v>
       </c>
     </row>
     <row r="121">
@@ -2489,16 +2489,16 @@
         <v>45046</v>
       </c>
       <c r="B121" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C121" t="n">
-        <v>1885.391935336922</v>
+        <v>29362.05621362539</v>
       </c>
       <c r="D121" t="n">
-        <v>227186562478.899</v>
+        <v>568513467268.4124</v>
       </c>
       <c r="E121" t="n">
-        <v>7328083478.977482</v>
+        <v>14707008604.647</v>
       </c>
     </row>
     <row r="122">
@@ -2506,16 +2506,16 @@
         <v>45047</v>
       </c>
       <c r="B122" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C122" t="n">
-        <v>1832.725799406749</v>
+        <v>28125.50115563682</v>
       </c>
       <c r="D122" t="n">
-        <v>220608989107.972</v>
+        <v>544421676291.2009</v>
       </c>
       <c r="E122" t="n">
-        <v>9673378163.522745</v>
+        <v>19980169281.00898</v>
       </c>
     </row>
     <row r="123">
@@ -2523,16 +2523,16 @@
         <v>45048</v>
       </c>
       <c r="B123" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C123" t="n">
-        <v>1870.828572787594</v>
+        <v>28654.39013332672</v>
       </c>
       <c r="D123" t="n">
-        <v>225192198744.2643</v>
+        <v>554886795897.9369</v>
       </c>
       <c r="E123" t="n">
-        <v>8338110887.912115</v>
+        <v>17699097406.1888</v>
       </c>
     </row>
     <row r="124">
@@ -2540,16 +2540,16 @@
         <v>45049</v>
       </c>
       <c r="B124" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C124" t="n">
-        <v>1903.728210735278</v>
+        <v>28988.32099624927</v>
       </c>
       <c r="D124" t="n">
-        <v>229058202737.1404</v>
+        <v>561312171794.5802</v>
       </c>
       <c r="E124" t="n">
-        <v>8855867548.894463</v>
+        <v>19944381490.56002</v>
       </c>
     </row>
     <row r="125">
@@ -2557,16 +2557,16 @@
         <v>45050</v>
       </c>
       <c r="B125" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C125" t="n">
-        <v>1877.401195052536</v>
+        <v>28846.46145860806</v>
       </c>
       <c r="D125" t="n">
-        <v>226033834100.1215</v>
+        <v>558634329303.2208</v>
       </c>
       <c r="E125" t="n">
-        <v>7156399180.62065</v>
+        <v>12676760580.08019</v>
       </c>
     </row>
     <row r="126">
@@ -2574,16 +2574,16 @@
         <v>45051</v>
       </c>
       <c r="B126" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C126" t="n">
-        <v>1993.612965747434</v>
+        <v>29520.3222689705</v>
       </c>
       <c r="D126" t="n">
-        <v>239911504424.294</v>
+        <v>571520224182.8824</v>
       </c>
       <c r="E126" t="n">
-        <v>10662067255.96863</v>
+        <v>4971523630.54862</v>
       </c>
     </row>
     <row r="127">
@@ -2591,16 +2591,16 @@
         <v>45052</v>
       </c>
       <c r="B127" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C127" t="n">
-        <v>1900.410599025731</v>
+        <v>28887.74104552337</v>
       </c>
       <c r="D127" t="n">
-        <v>228369002903.6794</v>
+        <v>559078681902.6073</v>
       </c>
       <c r="E127" t="n">
-        <v>11135926723.29712</v>
+        <v>6463808309.438925</v>
       </c>
     </row>
     <row r="128">
@@ -2608,16 +2608,16 @@
         <v>45053</v>
       </c>
       <c r="B128" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C128" t="n">
-        <v>1895.230148054891</v>
+        <v>28611.43919761457</v>
       </c>
       <c r="D128" t="n">
-        <v>228246618295.4416</v>
+        <v>554373015261.6681</v>
       </c>
       <c r="E128" t="n">
-        <v>6233921635.46938</v>
+        <v>10199066943.17034</v>
       </c>
     </row>
     <row r="129">
@@ -2625,16 +2625,16 @@
         <v>45054</v>
       </c>
       <c r="B129" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C129" t="n">
-        <v>1849.288629562528</v>
+        <v>27696.76078562556</v>
       </c>
       <c r="D129" t="n">
-        <v>222406833247.6045</v>
+        <v>536032086472.038</v>
       </c>
       <c r="E129" t="n">
-        <v>11496171817.8335</v>
+        <v>21535578788.86028</v>
       </c>
     </row>
     <row r="130">
@@ -2642,16 +2642,16 @@
         <v>45055</v>
       </c>
       <c r="B130" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C130" t="n">
-        <v>1846.064264023148</v>
+        <v>27607.39168091902</v>
       </c>
       <c r="D130" t="n">
-        <v>222246427487.2296</v>
+        <v>535037100026.6903</v>
       </c>
       <c r="E130" t="n">
-        <v>6373057170.18455</v>
+        <v>8876813250.933558</v>
       </c>
     </row>
     <row r="131">
@@ -2659,16 +2659,16 @@
         <v>45056</v>
       </c>
       <c r="B131" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C131" t="n">
-        <v>1842.865558834664</v>
+        <v>27639.73356593586</v>
       </c>
       <c r="D131" t="n">
-        <v>221632027136.726</v>
+        <v>534937464538.7582</v>
       </c>
       <c r="E131" t="n">
-        <v>10471130832.93585</v>
+        <v>17159331951.18988</v>
       </c>
     </row>
     <row r="132">
@@ -2676,16 +2676,16 @@
         <v>45057</v>
       </c>
       <c r="B132" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C132" t="n">
-        <v>1798.071945526263</v>
+        <v>27024.76572929978</v>
       </c>
       <c r="D132" t="n">
-        <v>216323022928.9258</v>
+        <v>523414877659.3074</v>
       </c>
       <c r="E132" t="n">
-        <v>9217787395.589426</v>
+        <v>7754296234.077171</v>
       </c>
     </row>
     <row r="133">
@@ -2693,16 +2693,16 @@
         <v>45058</v>
       </c>
       <c r="B133" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C133" t="n">
-        <v>1808.694999901569</v>
+        <v>26787.69039591833</v>
       </c>
       <c r="D133" t="n">
-        <v>217659652941.8761</v>
+        <v>518816444750.7709</v>
       </c>
       <c r="E133" t="n">
-        <v>10530874714.29914</v>
+        <v>9157286238.193073</v>
       </c>
     </row>
     <row r="134">
@@ -2710,16 +2710,16 @@
         <v>45059</v>
       </c>
       <c r="B134" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C134" t="n">
-        <v>1797.19947013765</v>
+        <v>26798.1262714747</v>
       </c>
       <c r="D134" t="n">
-        <v>216032102439.7302</v>
+        <v>520426027097.3362</v>
       </c>
       <c r="E134" t="n">
-        <v>5150212384.025403</v>
+        <v>8365379054.202115</v>
       </c>
     </row>
     <row r="135">
@@ -2727,16 +2727,16 @@
         <v>45060</v>
       </c>
       <c r="B135" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C135" t="n">
-        <v>1799.008658615005</v>
+        <v>26911.80527321389</v>
       </c>
       <c r="D135" t="n">
-        <v>216439514891.8453</v>
+        <v>521319019334.6962</v>
       </c>
       <c r="E135" t="n">
-        <v>4914907456.467633</v>
+        <v>6019488454.419681</v>
       </c>
     </row>
     <row r="136">
@@ -2744,16 +2744,16 @@
         <v>45061</v>
       </c>
       <c r="B136" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C136" t="n">
-        <v>1820.044759540719</v>
+        <v>27227.79342255879</v>
       </c>
       <c r="D136" t="n">
-        <v>218513683684.0507</v>
+        <v>527655229433.8867</v>
       </c>
       <c r="E136" t="n">
-        <v>7655256291.360313</v>
+        <v>14570026781.74709</v>
       </c>
     </row>
     <row r="137">
@@ -2761,16 +2761,16 @@
         <v>45062</v>
       </c>
       <c r="B137" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C137" t="n">
-        <v>1823.663018347519</v>
+        <v>27022.71317392115</v>
       </c>
       <c r="D137" t="n">
-        <v>219562064257.9877</v>
+        <v>523965691858.8659</v>
       </c>
       <c r="E137" t="n">
-        <v>6283428506.771688</v>
+        <v>12927093920.903</v>
       </c>
     </row>
     <row r="138">
@@ -2778,16 +2778,16 @@
         <v>45063</v>
       </c>
       <c r="B138" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C138" t="n">
-        <v>1821.050634709663</v>
+        <v>27389.9715114422</v>
       </c>
       <c r="D138" t="n">
-        <v>219124262711.374</v>
+        <v>530762551513.4872</v>
       </c>
       <c r="E138" t="n">
-        <v>6647945218.37179</v>
+        <v>12580626234.91345</v>
       </c>
     </row>
     <row r="139">
@@ -2795,16 +2795,16 @@
         <v>45064</v>
       </c>
       <c r="B139" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C139" t="n">
-        <v>1802.390955483449</v>
+        <v>26842.95249471792</v>
       </c>
       <c r="D139" t="n">
-        <v>217078808863.7798</v>
+        <v>520544913836.41</v>
       </c>
       <c r="E139" t="n">
-        <v>6170212643.307527</v>
+        <v>12599487111.93878</v>
       </c>
     </row>
     <row r="140">
@@ -2812,16 +2812,16 @@
         <v>45065</v>
       </c>
       <c r="B140" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C140" t="n">
-        <v>1812.131703560585</v>
+        <v>26884.37105958995</v>
       </c>
       <c r="D140" t="n">
-        <v>218083824882.0496</v>
+        <v>521153640362.9618</v>
       </c>
       <c r="E140" t="n">
-        <v>5092669091.509588</v>
+        <v>11559136131.36877</v>
       </c>
     </row>
     <row r="141">
@@ -2829,16 +2829,16 @@
         <v>45066</v>
       </c>
       <c r="B141" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C141" t="n">
-        <v>1818.969529503585</v>
+        <v>27093.79110149735</v>
       </c>
       <c r="D141" t="n">
-        <v>218770214155.4801</v>
+        <v>525040003344.1629</v>
       </c>
       <c r="E141" t="n">
-        <v>3117917206.10603</v>
+        <v>3882362454.219783</v>
       </c>
     </row>
     <row r="142">
@@ -2846,16 +2846,16 @@
         <v>45067</v>
       </c>
       <c r="B142" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C142" t="n">
-        <v>1804.92906710728</v>
+        <v>26773.83024366478</v>
       </c>
       <c r="D142" t="n">
-        <v>217302257173.6874</v>
+        <v>519171380714.0945</v>
       </c>
       <c r="E142" t="n">
-        <v>3835867355.217711</v>
+        <v>8125825605.684245</v>
       </c>
     </row>
     <row r="143">
@@ -2863,16 +2863,16 @@
         <v>45068</v>
       </c>
       <c r="B143" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C143" t="n">
-        <v>1818.401464498085</v>
+        <v>26869.68602179078</v>
       </c>
       <c r="D143" t="n">
-        <v>218746186925.5668</v>
+        <v>520821915713.9187</v>
       </c>
       <c r="E143" t="n">
-        <v>5183573151.892912</v>
+        <v>8025716966.179398</v>
       </c>
     </row>
     <row r="144">
@@ -2880,16 +2880,16 @@
         <v>45069</v>
       </c>
       <c r="B144" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C144" t="n">
-        <v>1854.193118273178</v>
+        <v>27222.93774660385</v>
       </c>
       <c r="D144" t="n">
-        <v>222906967413.9726</v>
+        <v>527528695688.7587</v>
       </c>
       <c r="E144" t="n">
-        <v>7537701078.994168</v>
+        <v>11685763863.31237</v>
       </c>
     </row>
     <row r="145">
@@ -2897,16 +2897,16 @@
         <v>45070</v>
       </c>
       <c r="B145" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C145" t="n">
-        <v>1800.736010305837</v>
+        <v>26338.94894699869</v>
       </c>
       <c r="D145" t="n">
-        <v>216837950430.067</v>
+        <v>510987979871.2201</v>
       </c>
       <c r="E145" t="n">
-        <v>8000139188.961748</v>
+        <v>17477200137.10873</v>
       </c>
     </row>
     <row r="146">
@@ -2914,16 +2914,16 @@
         <v>45071</v>
       </c>
       <c r="B146" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C146" t="n">
-        <v>1805.805760405694</v>
+        <v>26475.60790253427</v>
       </c>
       <c r="D146" t="n">
-        <v>217194191610.3175</v>
+        <v>513295724355.699</v>
       </c>
       <c r="E146" t="n">
-        <v>7459269403.375004</v>
+        <v>11953749225.494</v>
       </c>
     </row>
     <row r="147">
@@ -2931,16 +2931,16 @@
         <v>45072</v>
       </c>
       <c r="B147" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C147" t="n">
-        <v>1828.956536619728</v>
+        <v>26717.98755357178</v>
       </c>
       <c r="D147" t="n">
-        <v>219969209232.7905</v>
+        <v>517973731437.9403</v>
       </c>
       <c r="E147" t="n">
-        <v>6245753617.103617</v>
+        <v>10994037071.45216</v>
       </c>
     </row>
     <row r="148">
@@ -2948,16 +2948,16 @@
         <v>45073</v>
       </c>
       <c r="B148" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C148" t="n">
-        <v>1830.306651316898</v>
+        <v>26848.23993959246</v>
       </c>
       <c r="D148" t="n">
-        <v>220035586188.3539</v>
+        <v>520461980942.2543</v>
       </c>
       <c r="E148" t="n">
-        <v>4068177989.627464</v>
+        <v>6029471707.897409</v>
       </c>
     </row>
     <row r="149">
@@ -2965,16 +2965,16 @@
         <v>45074</v>
       </c>
       <c r="B149" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C149" t="n">
-        <v>1913.816249316578</v>
+        <v>28110.31346760928</v>
       </c>
       <c r="D149" t="n">
-        <v>230041639357.4828</v>
+        <v>544879177078.8053</v>
       </c>
       <c r="E149" t="n">
-        <v>7227287064.56947</v>
+        <v>13144599279.47902</v>
       </c>
     </row>
     <row r="150">
@@ -2982,16 +2982,16 @@
         <v>45075</v>
       </c>
       <c r="B150" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C150" t="n">
-        <v>1893.714274089704</v>
+        <v>27759.74666392068</v>
       </c>
       <c r="D150" t="n">
-        <v>227805314887.0995</v>
+        <v>538430950369.4982</v>
       </c>
       <c r="E150" t="n">
-        <v>6762040908.702834</v>
+        <v>13483205892.53959</v>
       </c>
     </row>
     <row r="151">
@@ -2999,16 +2999,16 @@
         <v>45076</v>
       </c>
       <c r="B151" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C151" t="n">
-        <v>1901.078310164527</v>
+        <v>27713.90854752951</v>
       </c>
       <c r="D151" t="n">
-        <v>228588229006.9005</v>
+        <v>537414074116.4985</v>
       </c>
       <c r="E151" t="n">
-        <v>6019457141.148654</v>
+        <v>12766436369.81596</v>
       </c>
     </row>
     <row r="152">
@@ -3016,16 +3016,16 @@
         <v>45077</v>
       </c>
       <c r="B152" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C152" t="n">
-        <v>1874.694885027078</v>
+        <v>27245.47446517972</v>
       </c>
       <c r="D152" t="n">
-        <v>225483513769.4682</v>
+        <v>528464394082.9387</v>
       </c>
       <c r="E152" t="n">
-        <v>5930556981.74496</v>
+        <v>10001106221.64707</v>
       </c>
     </row>
     <row r="153">
@@ -3033,16 +3033,16 @@
         <v>45078</v>
       </c>
       <c r="B153" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C153" t="n">
-        <v>1861.725386947619</v>
+        <v>26824.10149951678</v>
       </c>
       <c r="D153" t="n">
-        <v>223850958023.0443</v>
+        <v>520271910707.1127</v>
       </c>
       <c r="E153" t="n">
-        <v>6237923582.653606</v>
+        <v>12156086970.87299</v>
       </c>
     </row>
     <row r="154">
@@ -3050,16 +3050,16 @@
         <v>45079</v>
       </c>
       <c r="B154" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C154" t="n">
-        <v>1907.212321851007</v>
+        <v>27247.74008145703</v>
       </c>
       <c r="D154" t="n">
-        <v>229335461597.8791</v>
+        <v>528508990069.2122</v>
       </c>
       <c r="E154" t="n">
-        <v>6910486182.970303</v>
+        <v>15428145241.77596</v>
       </c>
     </row>
     <row r="155">
@@ -3067,16 +3067,16 @@
         <v>45080</v>
       </c>
       <c r="B155" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C155" t="n">
-        <v>1892.078176464758</v>
+        <v>27066.37132852623</v>
       </c>
       <c r="D155" t="n">
-        <v>227515751048.9767</v>
+        <v>525209390395.506</v>
       </c>
       <c r="E155" t="n">
-        <v>3798117031.943575</v>
+        <v>6673279605.629511</v>
       </c>
     </row>
     <row r="156">
@@ -3084,16 +3084,16 @@
         <v>45081</v>
       </c>
       <c r="B156" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C156" t="n">
-        <v>1893.178280382087</v>
+        <v>27315.44758748768</v>
       </c>
       <c r="D156" t="n">
-        <v>227418753400.9453</v>
+        <v>529630092281.3868</v>
       </c>
       <c r="E156" t="n">
-        <v>4274226592.398274</v>
+        <v>6098045626.047618</v>
       </c>
     </row>
     <row r="157">
@@ -3101,16 +3101,16 @@
         <v>45082</v>
       </c>
       <c r="B157" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C157" t="n">
-        <v>1813.6816549004</v>
+        <v>25792.6160902334</v>
       </c>
       <c r="D157" t="n">
-        <v>218224817446.1936</v>
+        <v>500593893699.2183</v>
       </c>
       <c r="E157" t="n">
-        <v>10887461193.43077</v>
+        <v>21208433571.87331</v>
       </c>
     </row>
     <row r="158">
@@ -3118,16 +3118,16 @@
         <v>45083</v>
       </c>
       <c r="B158" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C158" t="n">
-        <v>1883.242584625582</v>
+        <v>27216.61556469773</v>
       </c>
       <c r="D158" t="n">
-        <v>226225955928.725</v>
+        <v>527295592028.0809</v>
       </c>
       <c r="E158" t="n">
-        <v>9540379707.014326</v>
+        <v>22188018260.83246</v>
       </c>
     </row>
     <row r="159">
@@ -3135,16 +3135,16 @@
         <v>45084</v>
       </c>
       <c r="B159" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C159" t="n">
-        <v>1832.320402503454</v>
+        <v>26346.24454513763</v>
       </c>
       <c r="D159" t="n">
-        <v>220285044251.9128</v>
+        <v>510979921090.6337</v>
       </c>
       <c r="E159" t="n">
-        <v>8474108659.099132</v>
+        <v>14723854336.09437</v>
       </c>
     </row>
     <row r="160">
@@ -3152,16 +3152,16 @@
         <v>45085</v>
       </c>
       <c r="B160" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C160" t="n">
-        <v>1846.030001782057</v>
+        <v>26507.90989220298</v>
       </c>
       <c r="D160" t="n">
-        <v>222012641423.2545</v>
+        <v>514279355771.4992</v>
       </c>
       <c r="E160" t="n">
-        <v>4854817113.536453</v>
+        <v>10197924963.78026</v>
       </c>
     </row>
     <row r="161">
@@ -3169,16 +3169,16 @@
         <v>45086</v>
       </c>
       <c r="B161" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C161" t="n">
-        <v>1839.208012658193</v>
+        <v>26469.58168400703</v>
       </c>
       <c r="D161" t="n">
-        <v>221018802010.8545</v>
+        <v>513226142603.1213</v>
       </c>
       <c r="E161" t="n">
-        <v>5093666796.918479</v>
+        <v>10464066236.48124</v>
       </c>
     </row>
     <row r="162">
@@ -3186,16 +3186,16 @@
         <v>45087</v>
       </c>
       <c r="B162" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C162" t="n">
-        <v>1754.673228410636</v>
+        <v>25858.12289218562</v>
       </c>
       <c r="D162" t="n">
-        <v>210950148701.2072</v>
+        <v>501653860264.2029</v>
       </c>
       <c r="E162" t="n">
-        <v>41417850678.71391</v>
+        <v>9755626714.244692</v>
       </c>
     </row>
     <row r="163">
@@ -3203,16 +3203,16 @@
         <v>45088</v>
       </c>
       <c r="B163" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C163" t="n">
-        <v>1751.72459650425</v>
+        <v>25916.57989637981</v>
       </c>
       <c r="D163" t="n">
-        <v>210604043872.2481</v>
+        <v>502683000962.4302</v>
       </c>
       <c r="E163" t="n">
-        <v>5031836446.183817</v>
+        <v>10439993428.36551</v>
       </c>
     </row>
     <row r="164">
@@ -3220,16 +3220,16 @@
         <v>45089</v>
       </c>
       <c r="B164" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C164" t="n">
-        <v>1742.596052566616</v>
+        <v>25910.36274291946</v>
       </c>
       <c r="D164" t="n">
-        <v>209462687695.9398</v>
+        <v>502562686069.1699</v>
       </c>
       <c r="E164" t="n">
-        <v>6731496663.213711</v>
+        <v>9761691909.316031</v>
       </c>
     </row>
     <row r="165">
@@ -3237,16 +3237,16 @@
         <v>45090</v>
       </c>
       <c r="B165" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C165" t="n">
-        <v>1736.789437167462</v>
+        <v>25872.20645879509</v>
       </c>
       <c r="D165" t="n">
-        <v>208703993936.8153</v>
+        <v>501752262681.7188</v>
       </c>
       <c r="E165" t="n">
-        <v>6798862284.580931</v>
+        <v>9921875985.888603</v>
       </c>
     </row>
     <row r="166">
@@ -3254,16 +3254,16 @@
         <v>45091</v>
       </c>
       <c r="B166" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C166" t="n">
-        <v>1650.676667553546</v>
+        <v>25107.75469588059</v>
       </c>
       <c r="D166" t="n">
-        <v>198559274296.6206</v>
+        <v>487262840554.6715</v>
       </c>
       <c r="E166" t="n">
-        <v>8025571357.471881</v>
+        <v>11982737579.70281</v>
       </c>
     </row>
     <row r="167">
@@ -3271,16 +3271,16 @@
         <v>45092</v>
       </c>
       <c r="B167" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C167" t="n">
-        <v>1664.977462394022</v>
+        <v>25564.59963288714</v>
       </c>
       <c r="D167" t="n">
-        <v>200099209933.7168</v>
+        <v>495788386559.1016</v>
       </c>
       <c r="E167" t="n">
-        <v>8283225649.876287</v>
+        <v>15184095954.02951</v>
       </c>
     </row>
     <row r="168">
@@ -3288,16 +3288,16 @@
         <v>45093</v>
       </c>
       <c r="B168" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C168" t="n">
-        <v>1716.377281092857</v>
+        <v>26327.3256694539</v>
       </c>
       <c r="D168" t="n">
-        <v>206321573355.8955</v>
+        <v>510906153487.6052</v>
       </c>
       <c r="E168" t="n">
-        <v>7008799576.154325</v>
+        <v>13604025863.64197</v>
       </c>
     </row>
     <row r="169">
@@ -3305,16 +3305,16 @@
         <v>45094</v>
       </c>
       <c r="B169" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C169" t="n">
-        <v>1726.372809734998</v>
+        <v>26501.04444223367</v>
       </c>
       <c r="D169" t="n">
-        <v>207595972780.2269</v>
+        <v>514331114457.8236</v>
       </c>
       <c r="E169" t="n">
-        <v>4859690685.481605</v>
+        <v>9533422254.890303</v>
       </c>
     </row>
     <row r="170">
@@ -3322,16 +3322,16 @@
         <v>45095</v>
       </c>
       <c r="B170" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C170" t="n">
-        <v>1719.273161506867</v>
+        <v>26333.09252966437</v>
       </c>
       <c r="D170" t="n">
-        <v>206730774198.4613</v>
+        <v>511384956032.8801</v>
       </c>
       <c r="E170" t="n">
-        <v>4084738737.028457</v>
+        <v>8589379740.11672</v>
       </c>
     </row>
     <row r="171">
@@ -3339,16 +3339,16 @@
         <v>45096</v>
       </c>
       <c r="B171" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C171" t="n">
-        <v>1734.793103442663</v>
+        <v>26779.38746152284</v>
       </c>
       <c r="D171" t="n">
-        <v>208507638780.8943</v>
+        <v>519667661979.1768</v>
       </c>
       <c r="E171" t="n">
-        <v>5770983890.906085</v>
+        <v>6651894946.454161</v>
       </c>
     </row>
     <row r="172">
@@ -3356,16 +3356,16 @@
         <v>45097</v>
       </c>
       <c r="B172" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C172" t="n">
-        <v>1790.190440731765</v>
+        <v>28330.89141980751</v>
       </c>
       <c r="D172" t="n">
-        <v>215060967094.1403</v>
+        <v>549330089183.5233</v>
       </c>
       <c r="E172" t="n">
-        <v>7900259127.350303</v>
+        <v>19958565664.55226</v>
       </c>
     </row>
     <row r="173">
@@ -3373,16 +3373,16 @@
         <v>45098</v>
       </c>
       <c r="B173" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C173" t="n">
-        <v>1892.899571916819</v>
+        <v>30101.76481948869</v>
       </c>
       <c r="D173" t="n">
-        <v>227581626984.1515</v>
+        <v>584070487996.7889</v>
       </c>
       <c r="E173" t="n">
-        <v>12294793429.60021</v>
+        <v>23757254196.77703</v>
       </c>
     </row>
     <row r="174">
@@ -3390,16 +3390,16 @@
         <v>45099</v>
       </c>
       <c r="B174" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C174" t="n">
-        <v>1874.177947016714</v>
+        <v>29935.63210674956</v>
       </c>
       <c r="D174" t="n">
-        <v>225381084937.8792</v>
+        <v>581473706978.9268</v>
       </c>
       <c r="E174" t="n">
-        <v>9842202528.707741</v>
+        <v>19613389213.79876</v>
       </c>
     </row>
     <row r="175">
@@ -3407,16 +3407,16 @@
         <v>45100</v>
       </c>
       <c r="B175" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C175" t="n">
-        <v>1891.345008021678</v>
+        <v>30629.24435333575</v>
       </c>
       <c r="D175" t="n">
-        <v>227419416441.5965</v>
+        <v>594588611688.3142</v>
       </c>
       <c r="E175" t="n">
-        <v>9303341351.325251</v>
+        <v>22630955878.97284</v>
       </c>
     </row>
     <row r="176">
@@ -3424,16 +3424,16 @@
         <v>45101</v>
       </c>
       <c r="B176" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C176" t="n">
-        <v>1875.059961928488</v>
+        <v>30537.81666463479</v>
       </c>
       <c r="D176" t="n">
-        <v>225448939889.3551</v>
+        <v>592912110031.5245</v>
       </c>
       <c r="E176" t="n">
-        <v>4889178964.702732</v>
+        <v>11736119929.84371</v>
       </c>
     </row>
     <row r="177">
@@ -3441,16 +3441,16 @@
         <v>45102</v>
       </c>
       <c r="B177" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C177" t="n">
-        <v>1899.147312104605</v>
+        <v>30454.75697441562</v>
       </c>
       <c r="D177" t="n">
-        <v>228332438014.1302</v>
+        <v>591387700082.1104</v>
       </c>
       <c r="E177" t="n">
-        <v>7363880089.050316</v>
+        <v>12076819255.30491</v>
       </c>
     </row>
     <row r="178">
@@ -3458,16 +3458,16 @@
         <v>45103</v>
       </c>
       <c r="B178" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C178" t="n">
-        <v>1859.802419642797</v>
+        <v>30285.50506407074</v>
       </c>
       <c r="D178" t="n">
-        <v>223061316934.5412</v>
+        <v>587134340343.6245</v>
       </c>
       <c r="E178" t="n">
-        <v>9893270861.839865</v>
+        <v>16032184116.63131</v>
       </c>
     </row>
     <row r="179">
@@ -3475,16 +3475,16 @@
         <v>45104</v>
       </c>
       <c r="B179" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C179" t="n">
-        <v>1890.012903783708</v>
+        <v>30693.54635606798</v>
       </c>
       <c r="D179" t="n">
-        <v>227143144300.6532</v>
+        <v>595427193050.2291</v>
       </c>
       <c r="E179" t="n">
-        <v>8806434878.376961</v>
+        <v>14411853963.11047</v>
       </c>
     </row>
     <row r="180">
@@ -3492,16 +3492,16 @@
         <v>45105</v>
       </c>
       <c r="B180" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C180" t="n">
-        <v>1828.458336400725</v>
+        <v>30083.47724526382</v>
       </c>
       <c r="D180" t="n">
-        <v>219923192180.6849</v>
+        <v>584187696961.3756</v>
       </c>
       <c r="E180" t="n">
-        <v>6821723542.735137</v>
+        <v>8489428028.028098</v>
       </c>
     </row>
     <row r="181">
@@ -3509,16 +3509,16 @@
         <v>45106</v>
       </c>
       <c r="B181" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C181" t="n">
-        <v>1853.445245874994</v>
+        <v>30466.61045689353</v>
       </c>
       <c r="D181" t="n">
-        <v>222892015037.6711</v>
+        <v>591688337868.8445</v>
       </c>
       <c r="E181" t="n">
-        <v>6609358548.632103</v>
+        <v>12545425127.4463</v>
       </c>
     </row>
     <row r="182">
@@ -3526,16 +3526,16 @@
         <v>45107</v>
       </c>
       <c r="B182" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C182" t="n">
-        <v>1934.045714261775</v>
+        <v>30480.78148194446</v>
       </c>
       <c r="D182" t="n">
-        <v>232417040695.4234</v>
+        <v>591722375245.7673</v>
       </c>
       <c r="E182" t="n">
-        <v>11695335269.50953</v>
+        <v>21422361050.8231</v>
       </c>
     </row>
     <row r="183">
@@ -3543,135 +3543,16 @@
         <v>45108</v>
       </c>
       <c r="B183" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C183" t="n">
-        <v>1924.567240867651</v>
+        <v>30583.61959969754</v>
       </c>
       <c r="D183" t="n">
-        <v>231096044843.4623</v>
+        <v>593625140902.5646</v>
       </c>
       <c r="E183" t="n">
-        <v>5763533551.087498</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="2" t="n">
-        <v>45109</v>
-      </c>
-      <c r="B184" t="n">
-        <v>7</v>
-      </c>
-      <c r="C184" t="n">
-        <v>1933.959881383207</v>
-      </c>
-      <c r="D184" t="n">
-        <v>232373535009.1871</v>
-      </c>
-      <c r="E184" t="n">
-        <v>7183593046.18616</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="2" t="n">
-        <v>45110</v>
-      </c>
-      <c r="B185" t="n">
-        <v>6</v>
-      </c>
-      <c r="C185" t="n">
-        <v>1953.781127648916</v>
-      </c>
-      <c r="D185" t="n">
-        <v>234942840998.1385</v>
-      </c>
-      <c r="E185" t="n">
-        <v>9155212793.374969</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="2" t="n">
-        <v>45111</v>
-      </c>
-      <c r="B186" t="n">
-        <v>5</v>
-      </c>
-      <c r="C186" t="n">
-        <v>1937.000425539135</v>
-      </c>
-      <c r="D186" t="n">
-        <v>233226523011.071</v>
-      </c>
-      <c r="E186" t="n">
-        <v>6067277571.219523</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="2" t="n">
-        <v>45112</v>
-      </c>
-      <c r="B187" t="n">
-        <v>4</v>
-      </c>
-      <c r="C187" t="n">
-        <v>1910.505260509741</v>
-      </c>
-      <c r="D187" t="n">
-        <v>230045605241.4196</v>
-      </c>
-      <c r="E187" t="n">
-        <v>8180984490.329683</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="2" t="n">
-        <v>45113</v>
-      </c>
-      <c r="B188" t="n">
-        <v>3</v>
-      </c>
-      <c r="C188" t="n">
-        <v>1855.47478363631</v>
-      </c>
-      <c r="D188" t="n">
-        <v>223411633998.6567</v>
-      </c>
-      <c r="E188" t="n">
-        <v>13544056615.64035</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="2" t="n">
-        <v>45114</v>
-      </c>
-      <c r="B189" t="n">
-        <v>2</v>
-      </c>
-      <c r="C189" t="n">
-        <v>1869.317187141899</v>
-      </c>
-      <c r="D189" t="n">
-        <v>224666147793.6087</v>
-      </c>
-      <c r="E189" t="n">
-        <v>8877609275.171074</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="2" t="n">
-        <v>45115</v>
-      </c>
-      <c r="B190" t="n">
-        <v>1</v>
-      </c>
-      <c r="C190" t="n">
-        <v>1864.868591914638</v>
-      </c>
-      <c r="D190" t="n">
-        <v>224139520023.7157</v>
-      </c>
-      <c r="E190" t="n">
-        <v>5224435476.270515</v>
+        <v>4210431244.432685</v>
       </c>
     </row>
   </sheetData>
